--- a/test/out/numberformat.xlsx
+++ b/test/out/numberformat.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
@@ -371,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0">
-      <pane xSplit="1" ySplit="1" state="frozen" activePane="bottomRight" topLeftCell="B2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="7" state="frozen" activePane="bottomRight" topLeftCell="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -532,6 +532,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" scale="50"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
--- a/test/out/numberformat.xlsx
+++ b/test/out/numberformat.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E85CFAE-5DDC-CD4F-9FD0-9A6AE1FBC09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="$#,###.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,###.00"/>
+    <numFmt numFmtId="166" formatCode="&quot; ABCDE &quot;0.0%;&quot; ABCDE &quot;\-0.0%;&quot; ABCDE &quot;\—;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -33,6 +30,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -51,7 +55,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -69,23 +73,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyNumberFormat="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -127,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -159,9 +172,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,6 +224,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,166 +417,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" state="frozen" activePane="bottomRight" topLeftCell="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>1.61803398875</v>
+        <v>1.6180339887499999</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2.71828182846</v>
+        <v>2.7182818284599999</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>3.14159265459</v>
+        <v>3.1415926545900001</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>314159.265459</v>
+        <v>314159.26545900002</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>0.31415900000000002</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/out/numberformat.xlsx
+++ b/test/out/numberformat.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E85CFAE-5DDC-CD4F-9FD0-9A6AE1FBC09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\$#,###.00"/>
-    <numFmt numFmtId="166" formatCode="&quot; ABCDE &quot;0.0%;&quot; ABCDE &quot;\-0.0%;&quot; ABCDE &quot;\—;@"/>
+    <numFmt numFmtId="165" formatCode="$#,###.00"/>
+    <numFmt numFmtId="166" formatCode="&quot; ABCDE &quot;0.0%;&quot; ABCDE &quot;-0.0%;&quot; ABCDE &quot;—;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -55,7 +59,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -74,31 +78,23 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -140,7 +136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,27 +168,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,24 +202,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,42 +377,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <pane/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1">
-        <v>1.6180339887499999</v>
+        <v>1.61803398875</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
-        <v>2.7182818284599999</v>
+        <v>2.71828182846</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
-        <v>3.1415926545900001</v>
+        <v>3.14159265459</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>314159.26545900002</v>
+        <v>314159.265459</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
-        <v>0.31415900000000002</v>
+        <v>0.314159</v>
       </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
